--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R7f6f6b59fa024a91"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Reafe0749bf7c49dd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Reafe0749bf7c49dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Ra64013c338bf4124"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Ra64013c338bf4124"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rdce1d9a2d4884118"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rdce1d9a2d4884118"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R94003a34393f4519"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R94003a34393f4519"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R5cf535673c67459d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R5cf535673c67459d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Re47211dcec074448"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Re47211dcec074448"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R26654a7230854a76"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R26654a7230854a76"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R2ff0d95eff214bc8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R2ff0d95eff214bc8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0c874cb3a59c4e7b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0c874cb3a59c4e7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R8265bb162ba54051"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R8265bb162ba54051"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Ra7f1363e0ad44c73"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,35 +30,35 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="8">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Ra7f1363e0ad44c73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R6123ec8bcddf4774"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,35 +30,35 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="8">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/018_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R6123ec8bcddf4774"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rfe67fcec535a4961"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
